--- a/exportTemplates/Reports-football-default.xlsx
+++ b/exportTemplates/Reports-football-default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Стратегния 1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Фильтры" sheetId="8" r:id="rId8"/>
     <sheet name="other" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="73">
   <si>
     <t>Дата добавления</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>${table:statistics.snapshot.end.displayTime}</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>${table:statistics.score.resulting}</t>
   </si>
 </sst>
 </file>
@@ -270,7 +276,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -631,11 +637,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -698,6 +719,51 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -740,50 +806,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP13"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,392 +1167,275 @@
     <col min="40" max="40" width="6.140625" customWidth="1"/>
     <col min="41" max="41" width="7" customWidth="1"/>
     <col min="42" max="42" width="17" style="20" customWidth="1"/>
+    <col min="43" max="43" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="22" t="s">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" s="53" t="s">
         <v>0</v>
       </c>
+      <c r="AQ1" s="51" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="23"/>
+    <row r="2" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ2" s="52" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP3" s="24"/>
-    </row>
-    <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z4" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE4" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF4" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO4" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP4" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="L13" s="3"/>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="AP1:AP3"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.37" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
@@ -1530,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP13"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,402 +1491,285 @@
     <col min="40" max="40" width="6.140625" customWidth="1"/>
     <col min="41" max="41" width="7" customWidth="1"/>
     <col min="42" max="42" width="17" style="20" customWidth="1"/>
+    <col min="43" max="43" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="22" t="s">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" s="53" t="s">
         <v>0</v>
       </c>
+      <c r="AQ1" s="51" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="23"/>
+    <row r="2" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ2" s="52" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP3" s="24"/>
-    </row>
-    <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z4" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE4" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF4" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO4" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP4" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="L13" s="3"/>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AP1:AP3"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP13"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,402 +1814,285 @@
     <col min="40" max="40" width="6.140625" customWidth="1"/>
     <col min="41" max="41" width="7" customWidth="1"/>
     <col min="42" max="42" width="17" style="20" customWidth="1"/>
+    <col min="43" max="43" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="22" t="s">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" s="53" t="s">
         <v>0</v>
       </c>
+      <c r="AQ1" s="51" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="23"/>
+    <row r="2" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ2" s="52" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP3" s="24"/>
-    </row>
-    <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z4" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE4" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF4" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO4" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP4" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="L13" s="3"/>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AP1:AP3"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AP1" sqref="AP1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1:AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,9 +2137,10 @@
     <col min="40" max="40" width="6.140625" customWidth="1"/>
     <col min="41" max="41" width="7" customWidth="1"/>
     <col min="42" max="42" width="17" style="20" customWidth="1"/>
+    <col min="43" max="43" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -2587,8 +2267,11 @@
       <c r="AP1" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="AQ1" s="51" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -2715,8 +2398,11 @@
       <c r="AP2" s="19" t="s">
         <v>11</v>
       </c>
+      <c r="AQ2" s="52" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L11" s="3"/>
     </row>
   </sheetData>
@@ -2726,10 +2412,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AH27" sqref="AH27"/>
+      <selection activeCell="BC1" sqref="BC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2774,9 +2460,10 @@
     <col min="40" max="40" width="6.140625" customWidth="1"/>
     <col min="41" max="41" width="7" customWidth="1"/>
     <col min="42" max="42" width="17" style="20" customWidth="1"/>
+    <col min="43" max="43" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -2903,8 +2590,11 @@
       <c r="AP1" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="AQ1" s="51" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -3031,8 +2721,11 @@
       <c r="AP2" s="19" t="s">
         <v>11</v>
       </c>
+      <c r="AQ2" s="52" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L11" s="3"/>
     </row>
   </sheetData>
@@ -3725,116 +3418,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="25" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="35" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="48" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="48" t="s">
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="22" t="s">
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="34" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="31" t="s">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="36" t="s">
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="39" t="s">
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="36" t="s">
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="39" t="s">
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="23"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="38"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3960,7 +3653,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="24"/>
+      <c r="AP3" s="39"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -4095,11 +3788,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
@@ -4107,6 +3795,11 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4165,116 +3858,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="25" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="35" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="48" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="48" t="s">
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="22" t="s">
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="34" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="31" t="s">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="36" t="s">
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="39" t="s">
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="36" t="s">
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="39" t="s">
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="23"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="38"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4400,7 +4093,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="24"/>
+      <c r="AP3" s="39"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -4535,11 +4228,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
@@ -4547,6 +4235,11 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exportTemplates/Reports-football-default.xlsx
+++ b/exportTemplates/Reports-football-default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Стратегния 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="73">
   <si>
     <t>Дата добавления</t>
   </si>
@@ -719,6 +719,54 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,6 +785,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,75 +814,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1294,10 +1294,10 @@
       <c r="AO1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="53" t="s">
+      <c r="AP1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="AQ1" s="51" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       <c r="AP2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AQ2" s="52" t="s">
+      <c r="AQ2" s="23" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1618,10 +1618,10 @@
       <c r="AO1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="53" t="s">
+      <c r="AP1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="AQ1" s="51" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       <c r="AP2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AQ2" s="52" t="s">
+      <c r="AQ2" s="23" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1941,10 +1941,10 @@
       <c r="AO1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="53" t="s">
+      <c r="AP1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="AQ1" s="51" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
       <c r="AP2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AQ2" s="52" t="s">
+      <c r="AQ2" s="23" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       <c r="AP1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="AQ1" s="51" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="AP2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AQ2" s="52" t="s">
+      <c r="AQ2" s="23" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2414,8 +2414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BC1" sqref="BC1"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,7 +2590,7 @@
       <c r="AP1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="AQ1" s="51" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       <c r="AP2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AQ2" s="52" t="s">
+      <c r="AQ2" s="23" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2735,10 +2735,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2783,9 +2783,10 @@
     <col min="40" max="40" width="6.140625" customWidth="1"/>
     <col min="41" max="41" width="7" customWidth="1"/>
     <col min="42" max="42" width="17" style="20" customWidth="1"/>
+    <col min="43" max="43" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -2912,8 +2913,11 @@
       <c r="AP1" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="AQ1" s="22" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -3040,8 +3044,11 @@
       <c r="AP2" s="19" t="s">
         <v>11</v>
       </c>
+      <c r="AQ2" s="23" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="L11" s="3"/>
     </row>
   </sheetData>
@@ -3418,21 +3425,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="40" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="50" t="s">
         <v>57</v>
       </c>
@@ -3445,89 +3452,89 @@
       <c r="S1" s="50"/>
       <c r="T1" s="50"/>
       <c r="U1" s="50"/>
-      <c r="V1" s="28" t="s">
+      <c r="V1" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="28" t="s">
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="37" t="s">
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="25" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="49" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="46" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="31" t="s">
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="34" t="s">
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="31" t="s">
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="34" t="s">
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="38"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="26"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3653,7 +3660,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="39"/>
+      <c r="AP3" s="27"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -3788,6 +3795,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
@@ -3795,11 +3807,6 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3858,21 +3865,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="40" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="50" t="s">
         <v>57</v>
       </c>
@@ -3885,89 +3892,89 @@
       <c r="S1" s="50"/>
       <c r="T1" s="50"/>
       <c r="U1" s="50"/>
-      <c r="V1" s="28" t="s">
+      <c r="V1" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="28" t="s">
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="37" t="s">
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="25" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="49" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="46" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="31" t="s">
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="34" t="s">
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="31" t="s">
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="34" t="s">
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="38"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="26"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4093,7 +4100,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="39"/>
+      <c r="AP3" s="27"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -4228,6 +4235,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
@@ -4235,11 +4247,6 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exportTemplates/Reports-football-default.xlsx
+++ b/exportTemplates/Reports-football-default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Стратегния 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="75">
   <si>
     <t>Дата добавления</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>${table:statistics.score.resulting}</t>
+  </si>
+  <si>
+    <t>Огр.</t>
+  </si>
+  <si>
+    <t>${table:statistics.command.limited}</t>
   </si>
 </sst>
 </file>
@@ -656,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -716,27 +722,72 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -766,54 +817,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,44 +1136,44 @@
     <col min="4" max="4" width="23" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" customWidth="1"/>
-    <col min="19" max="19" width="4.140625" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" customWidth="1"/>
-    <col min="22" max="22" width="5.140625" customWidth="1"/>
-    <col min="23" max="23" width="6" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="6.28515625" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" customWidth="1"/>
-    <col min="30" max="30" width="5.85546875" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" customWidth="1"/>
-    <col min="32" max="32" width="5" customWidth="1"/>
-    <col min="33" max="33" width="6.85546875" customWidth="1"/>
-    <col min="35" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" customWidth="1"/>
-    <col min="37" max="37" width="5.42578125" customWidth="1"/>
-    <col min="38" max="38" width="6.140625" customWidth="1"/>
-    <col min="40" max="40" width="6.140625" customWidth="1"/>
-    <col min="41" max="41" width="7" customWidth="1"/>
-    <col min="42" max="42" width="17" style="20" customWidth="1"/>
-    <col min="43" max="43" width="39.7109375" customWidth="1"/>
+    <col min="7" max="8" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
+    <col min="20" max="20" width="4.140625" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1"/>
+    <col min="24" max="24" width="6" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" customWidth="1"/>
+    <col min="26" max="26" width="6" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" customWidth="1"/>
+    <col min="29" max="29" width="6.28515625" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" customWidth="1"/>
+    <col min="31" max="31" width="5.85546875" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" customWidth="1"/>
+    <col min="33" max="33" width="5" customWidth="1"/>
+    <col min="34" max="34" width="6.85546875" customWidth="1"/>
+    <col min="36" max="36" width="5.140625" customWidth="1"/>
+    <col min="37" max="37" width="6.5703125" customWidth="1"/>
+    <col min="38" max="38" width="5.42578125" customWidth="1"/>
+    <col min="39" max="39" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="6.140625" customWidth="1"/>
+    <col min="42" max="42" width="7" customWidth="1"/>
+    <col min="43" max="43" width="17" style="20" customWidth="1"/>
+    <col min="44" max="44" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -1192,116 +1195,119 @@
       <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="24" t="s">
+      <c r="AQ1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AR1" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -1323,117 +1329,120 @@
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Z2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AA2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AB2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AE2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AF2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AG2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AH2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AI2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AK2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AL2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AM2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AN2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="AO2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AO2" s="18" t="s">
+      <c r="AP2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AQ2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AQ2" s="23" t="s">
+      <c r="AR2" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="L11" s="3"/>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="M11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.37" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1443,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="D33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,44 +1466,44 @@
     <col min="4" max="4" width="23" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" customWidth="1"/>
-    <col min="19" max="19" width="4.140625" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" customWidth="1"/>
-    <col min="22" max="22" width="5.140625" customWidth="1"/>
-    <col min="23" max="23" width="6" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="6.28515625" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" customWidth="1"/>
-    <col min="30" max="30" width="5.85546875" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" customWidth="1"/>
-    <col min="32" max="32" width="5" customWidth="1"/>
-    <col min="33" max="33" width="6.85546875" customWidth="1"/>
-    <col min="35" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" customWidth="1"/>
-    <col min="37" max="37" width="5.42578125" customWidth="1"/>
-    <col min="38" max="38" width="6.140625" customWidth="1"/>
-    <col min="40" max="40" width="6.140625" customWidth="1"/>
-    <col min="41" max="41" width="7" customWidth="1"/>
-    <col min="42" max="42" width="17" style="20" customWidth="1"/>
-    <col min="43" max="43" width="31.140625" customWidth="1"/>
+    <col min="7" max="8" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
+    <col min="20" max="20" width="4.140625" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1"/>
+    <col min="24" max="24" width="6" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" customWidth="1"/>
+    <col min="26" max="26" width="6" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" customWidth="1"/>
+    <col min="29" max="29" width="6.28515625" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" customWidth="1"/>
+    <col min="31" max="31" width="5.85546875" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" customWidth="1"/>
+    <col min="33" max="33" width="5" customWidth="1"/>
+    <col min="34" max="34" width="6.85546875" customWidth="1"/>
+    <col min="36" max="36" width="5.140625" customWidth="1"/>
+    <col min="37" max="37" width="6.5703125" customWidth="1"/>
+    <col min="38" max="38" width="5.42578125" customWidth="1"/>
+    <col min="39" max="39" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="6.140625" customWidth="1"/>
+    <col min="42" max="42" width="7" customWidth="1"/>
+    <col min="43" max="43" width="17" style="20" customWidth="1"/>
+    <col min="44" max="44" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -1516,116 +1525,119 @@
       <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="24" t="s">
+      <c r="AQ1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AR1" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -1647,117 +1659,120 @@
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Z2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AA2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AB2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AE2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AF2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AG2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AH2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AI2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AK2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AL2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AM2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AN2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="AO2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AO2" s="18" t="s">
+      <c r="AP2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AQ2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AQ2" s="23" t="s">
+      <c r="AR2" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="L11" s="3"/>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="M11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1766,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,44 +1795,44 @@
     <col min="4" max="4" width="23" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" customWidth="1"/>
-    <col min="19" max="19" width="4.140625" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" customWidth="1"/>
-    <col min="22" max="22" width="5.140625" customWidth="1"/>
-    <col min="23" max="23" width="6" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="6.28515625" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" customWidth="1"/>
-    <col min="30" max="30" width="5.85546875" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" customWidth="1"/>
-    <col min="32" max="32" width="5" customWidth="1"/>
-    <col min="33" max="33" width="6.85546875" customWidth="1"/>
-    <col min="35" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" customWidth="1"/>
-    <col min="37" max="37" width="5.42578125" customWidth="1"/>
-    <col min="38" max="38" width="6.140625" customWidth="1"/>
-    <col min="40" max="40" width="6.140625" customWidth="1"/>
-    <col min="41" max="41" width="7" customWidth="1"/>
-    <col min="42" max="42" width="17" style="20" customWidth="1"/>
-    <col min="43" max="43" width="30.28515625" customWidth="1"/>
+    <col min="7" max="8" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
+    <col min="20" max="20" width="4.140625" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1"/>
+    <col min="24" max="24" width="6" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" customWidth="1"/>
+    <col min="26" max="26" width="6" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" customWidth="1"/>
+    <col min="29" max="29" width="6.28515625" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" customWidth="1"/>
+    <col min="31" max="31" width="5.85546875" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" customWidth="1"/>
+    <col min="33" max="33" width="5" customWidth="1"/>
+    <col min="34" max="34" width="6.85546875" customWidth="1"/>
+    <col min="36" max="36" width="5.140625" customWidth="1"/>
+    <col min="37" max="37" width="6.5703125" customWidth="1"/>
+    <col min="38" max="38" width="5.42578125" customWidth="1"/>
+    <col min="39" max="39" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="6.140625" customWidth="1"/>
+    <col min="42" max="42" width="7" customWidth="1"/>
+    <col min="43" max="43" width="17" style="20" customWidth="1"/>
+    <col min="44" max="44" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -1839,116 +1854,119 @@
       <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="24" t="s">
+      <c r="AQ1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AR1" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -1970,117 +1988,120 @@
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Z2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AA2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AB2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AE2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AF2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AG2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AH2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AI2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AK2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AL2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AM2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AN2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="AO2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AO2" s="18" t="s">
+      <c r="AP2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AQ2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AQ2" s="23" t="s">
+      <c r="AR2" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="L11" s="3"/>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="M11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2089,10 +2110,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1:AQ2"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,44 +2124,44 @@
     <col min="4" max="4" width="23" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" customWidth="1"/>
-    <col min="19" max="19" width="4.140625" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" customWidth="1"/>
-    <col min="22" max="22" width="5.140625" customWidth="1"/>
-    <col min="23" max="23" width="6" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="6.28515625" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" customWidth="1"/>
-    <col min="30" max="30" width="5.85546875" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" customWidth="1"/>
-    <col min="32" max="32" width="5" customWidth="1"/>
-    <col min="33" max="33" width="6.85546875" customWidth="1"/>
-    <col min="35" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" customWidth="1"/>
-    <col min="37" max="37" width="5.42578125" customWidth="1"/>
-    <col min="38" max="38" width="6.140625" customWidth="1"/>
-    <col min="40" max="40" width="6.140625" customWidth="1"/>
-    <col min="41" max="41" width="7" customWidth="1"/>
-    <col min="42" max="42" width="17" style="20" customWidth="1"/>
-    <col min="43" max="43" width="34.7109375" customWidth="1"/>
+    <col min="7" max="8" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
+    <col min="20" max="20" width="4.140625" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1"/>
+    <col min="24" max="24" width="6" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" customWidth="1"/>
+    <col min="26" max="26" width="6" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" customWidth="1"/>
+    <col min="29" max="29" width="6.28515625" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" customWidth="1"/>
+    <col min="31" max="31" width="5.85546875" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" customWidth="1"/>
+    <col min="33" max="33" width="5" customWidth="1"/>
+    <col min="34" max="34" width="6.85546875" customWidth="1"/>
+    <col min="36" max="36" width="5.140625" customWidth="1"/>
+    <col min="37" max="37" width="6.5703125" customWidth="1"/>
+    <col min="38" max="38" width="5.42578125" customWidth="1"/>
+    <col min="39" max="39" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="6.140625" customWidth="1"/>
+    <col min="42" max="42" width="7" customWidth="1"/>
+    <col min="43" max="43" width="17" style="20" customWidth="1"/>
+    <col min="44" max="44" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -2162,116 +2183,119 @@
       <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="21" t="s">
+      <c r="AQ1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AR1" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -2293,117 +2317,120 @@
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Z2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AA2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AB2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AE2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AF2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AG2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AH2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AI2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AK2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AL2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AM2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AN2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="AO2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AO2" s="18" t="s">
+      <c r="AP2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AQ2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AQ2" s="23" t="s">
+      <c r="AR2" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="L11" s="3"/>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="M11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2412,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AH28" sqref="AH28"/>
+      <selection activeCell="AH28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,44 +2453,44 @@
     <col min="4" max="4" width="23" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" customWidth="1"/>
-    <col min="19" max="19" width="4.140625" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" customWidth="1"/>
-    <col min="22" max="22" width="5.140625" customWidth="1"/>
-    <col min="23" max="23" width="6" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="6.28515625" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" customWidth="1"/>
-    <col min="30" max="30" width="5.85546875" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" customWidth="1"/>
-    <col min="32" max="32" width="5" customWidth="1"/>
-    <col min="33" max="33" width="6.85546875" customWidth="1"/>
-    <col min="35" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" customWidth="1"/>
-    <col min="37" max="37" width="5.42578125" customWidth="1"/>
-    <col min="38" max="38" width="6.140625" customWidth="1"/>
-    <col min="40" max="40" width="6.140625" customWidth="1"/>
-    <col min="41" max="41" width="7" customWidth="1"/>
-    <col min="42" max="42" width="17" style="20" customWidth="1"/>
-    <col min="43" max="43" width="37.85546875" customWidth="1"/>
+    <col min="7" max="8" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
+    <col min="20" max="20" width="4.140625" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1"/>
+    <col min="24" max="24" width="6" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" customWidth="1"/>
+    <col min="26" max="26" width="6" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" customWidth="1"/>
+    <col min="29" max="29" width="6.28515625" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" customWidth="1"/>
+    <col min="31" max="31" width="5.85546875" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" customWidth="1"/>
+    <col min="33" max="33" width="5" customWidth="1"/>
+    <col min="34" max="34" width="6.85546875" customWidth="1"/>
+    <col min="36" max="36" width="5.140625" customWidth="1"/>
+    <col min="37" max="37" width="6.5703125" customWidth="1"/>
+    <col min="38" max="38" width="5.42578125" customWidth="1"/>
+    <col min="39" max="39" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="6.140625" customWidth="1"/>
+    <col min="42" max="42" width="7" customWidth="1"/>
+    <col min="43" max="43" width="17" style="20" customWidth="1"/>
+    <col min="44" max="44" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -2485,116 +2512,119 @@
       <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="21" t="s">
+      <c r="AQ1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AR1" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -2616,117 +2646,120 @@
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Z2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AA2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AB2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AE2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AF2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AG2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AH2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AI2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AK2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AL2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AM2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AN2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="AO2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AO2" s="18" t="s">
+      <c r="AP2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AQ2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AQ2" s="23" t="s">
+      <c r="AR2" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="L11" s="3"/>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="M11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2735,10 +2768,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AE17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2749,44 +2782,44 @@
     <col min="4" max="4" width="23" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" customWidth="1"/>
-    <col min="19" max="19" width="4.140625" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" customWidth="1"/>
-    <col min="22" max="22" width="5.140625" customWidth="1"/>
-    <col min="23" max="23" width="6" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="6.28515625" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" customWidth="1"/>
-    <col min="30" max="30" width="5.85546875" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" customWidth="1"/>
-    <col min="32" max="32" width="5" customWidth="1"/>
-    <col min="33" max="33" width="6.85546875" customWidth="1"/>
-    <col min="35" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" customWidth="1"/>
-    <col min="37" max="37" width="5.42578125" customWidth="1"/>
-    <col min="38" max="38" width="6.140625" customWidth="1"/>
-    <col min="40" max="40" width="6.140625" customWidth="1"/>
-    <col min="41" max="41" width="7" customWidth="1"/>
-    <col min="42" max="42" width="17" style="20" customWidth="1"/>
-    <col min="43" max="43" width="34.140625" customWidth="1"/>
+    <col min="7" max="8" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
+    <col min="20" max="20" width="4.140625" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1"/>
+    <col min="24" max="24" width="6" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" customWidth="1"/>
+    <col min="26" max="26" width="6" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" customWidth="1"/>
+    <col min="29" max="29" width="6.28515625" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" customWidth="1"/>
+    <col min="31" max="31" width="5.85546875" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" customWidth="1"/>
+    <col min="33" max="33" width="5" customWidth="1"/>
+    <col min="34" max="34" width="6.85546875" customWidth="1"/>
+    <col min="36" max="36" width="5.140625" customWidth="1"/>
+    <col min="37" max="37" width="6.5703125" customWidth="1"/>
+    <col min="38" max="38" width="5.42578125" customWidth="1"/>
+    <col min="39" max="39" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="6.140625" customWidth="1"/>
+    <col min="42" max="42" width="7" customWidth="1"/>
+    <col min="43" max="43" width="17" style="20" customWidth="1"/>
+    <col min="44" max="44" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -2808,116 +2841,119 @@
       <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="21" t="s">
+      <c r="AQ1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AR1" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -2939,117 +2975,120 @@
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Z2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AA2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AB2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AE2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AF2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AG2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AH2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AI2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AK2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AL2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AM2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AN2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="AO2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AO2" s="18" t="s">
+      <c r="AP2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AQ2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AQ2" s="23" t="s">
+      <c r="AR2" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="L11" s="3"/>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="M11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3058,10 +3097,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3072,43 +3111,44 @@
     <col min="4" max="4" width="23" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" customWidth="1"/>
-    <col min="19" max="19" width="4.140625" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" customWidth="1"/>
-    <col min="22" max="22" width="5.140625" customWidth="1"/>
-    <col min="23" max="23" width="6" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="6.28515625" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" customWidth="1"/>
-    <col min="30" max="30" width="5.85546875" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" customWidth="1"/>
-    <col min="32" max="32" width="5" customWidth="1"/>
-    <col min="33" max="33" width="6.85546875" customWidth="1"/>
-    <col min="35" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" customWidth="1"/>
-    <col min="37" max="37" width="5.42578125" customWidth="1"/>
-    <col min="38" max="38" width="6.140625" customWidth="1"/>
-    <col min="40" max="40" width="6.140625" customWidth="1"/>
-    <col min="41" max="41" width="7" customWidth="1"/>
-    <col min="42" max="42" width="17" style="20" customWidth="1"/>
+    <col min="7" max="8" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
+    <col min="20" max="20" width="4.140625" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1"/>
+    <col min="24" max="24" width="6" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" customWidth="1"/>
+    <col min="26" max="26" width="6" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" customWidth="1"/>
+    <col min="29" max="29" width="6.28515625" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" customWidth="1"/>
+    <col min="31" max="31" width="5.85546875" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" customWidth="1"/>
+    <col min="33" max="33" width="5" customWidth="1"/>
+    <col min="34" max="34" width="6.85546875" customWidth="1"/>
+    <col min="36" max="36" width="5.140625" customWidth="1"/>
+    <col min="37" max="37" width="6.5703125" customWidth="1"/>
+    <col min="38" max="38" width="5.42578125" customWidth="1"/>
+    <col min="39" max="39" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="6.140625" customWidth="1"/>
+    <col min="42" max="42" width="7" customWidth="1"/>
+    <col min="43" max="43" width="17" style="20" customWidth="1"/>
+    <col min="44" max="44" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -3130,113 +3170,119 @@
       <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="21" t="s">
+      <c r="AQ1" s="23" t="s">
         <v>0</v>
       </c>
+      <c r="AR1" s="21" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -3258,114 +3304,120 @@
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Z2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AA2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AB2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AE2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AF2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AG2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AH2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AI2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AK2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AL2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AM2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AN2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="AO2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AO2" s="18" t="s">
+      <c r="AP2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AQ2" s="19" t="s">
         <v>11</v>
       </c>
+      <c r="AR2" s="22" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="L11" s="3"/>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="M11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3374,10 +3426,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP13"/>
+  <dimension ref="A1:AQ13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3388,155 +3440,157 @@
     <col min="4" max="4" width="23" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" customWidth="1"/>
-    <col min="19" max="19" width="4.140625" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" customWidth="1"/>
-    <col min="22" max="22" width="5.140625" customWidth="1"/>
-    <col min="23" max="23" width="6" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="6.28515625" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" customWidth="1"/>
-    <col min="30" max="30" width="5.85546875" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" customWidth="1"/>
-    <col min="32" max="32" width="5" customWidth="1"/>
-    <col min="33" max="33" width="6.85546875" customWidth="1"/>
-    <col min="35" max="35" width="5.140625" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" customWidth="1"/>
-    <col min="37" max="37" width="5.42578125" customWidth="1"/>
-    <col min="38" max="38" width="6.140625" customWidth="1"/>
-    <col min="40" max="40" width="6.140625" customWidth="1"/>
-    <col min="41" max="41" width="7" customWidth="1"/>
-    <col min="42" max="42" width="17" style="20" customWidth="1"/>
+    <col min="7" max="8" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
+    <col min="20" max="20" width="4.140625" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1"/>
+    <col min="24" max="24" width="6" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" customWidth="1"/>
+    <col min="26" max="26" width="6" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" customWidth="1"/>
+    <col min="29" max="29" width="6.28515625" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" customWidth="1"/>
+    <col min="31" max="31" width="5.85546875" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" customWidth="1"/>
+    <col min="33" max="33" width="5" customWidth="1"/>
+    <col min="34" max="34" width="6.85546875" customWidth="1"/>
+    <col min="36" max="36" width="5.140625" customWidth="1"/>
+    <col min="37" max="37" width="6.5703125" customWidth="1"/>
+    <col min="38" max="38" width="5.42578125" customWidth="1"/>
+    <col min="39" max="39" width="6.140625" customWidth="1"/>
+    <col min="41" max="41" width="6.140625" customWidth="1"/>
+    <col min="42" max="42" width="7" customWidth="1"/>
+    <col min="43" max="43" width="17" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:43" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="44" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="50" t="s">
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="51" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="25" t="s">
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="28" t="s">
+    <row r="2" spans="1:43" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="32" t="s">
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="35" t="s">
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="32" t="s">
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="35" t="s">
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="26"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="41"/>
     </row>
-    <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -3558,111 +3612,114 @@
       <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="V3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="W3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="Y3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Z3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AB3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AC3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AD3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AE3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AG3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AH3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AI3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AL3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="AN3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AN3" s="6" t="s">
+      <c r="AO3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="27"/>
+      <c r="AQ3" s="42"/>
     </row>
-    <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -3684,129 +3741,132 @@
       <c r="G4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="L4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="M4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="Q4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="R4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="S4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="V4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="W4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="X4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="Y4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Z4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="AA4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AB4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AC4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AD4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AE4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AF4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AF4" s="17" t="s">
+      <c r="AG4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AH4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AI4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AJ4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AJ4" s="15" t="s">
+      <c r="AK4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AK4" s="17" t="s">
+      <c r="AL4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AL4" s="15" t="s">
+      <c r="AM4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AM4" s="15" t="s">
+      <c r="AN4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AN4" s="15" t="s">
+      <c r="AO4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AO4" s="18" t="s">
+      <c r="AP4" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AP4" s="19" t="s">
+      <c r="AQ4" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="L13" s="3"/>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="M13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
-    <mergeCell ref="AP1:AP3"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="AQ1:AQ3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="W1:AF1"/>
+    <mergeCell ref="AG1:AP1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3865,116 +3925,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="44" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="50" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="51" t="s">
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="25" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="40" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="28" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31" t="s">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="32" t="s">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="35" t="s">
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="32" t="s">
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="35" t="s">
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="26"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="41"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4100,7 +4160,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="27"/>
+      <c r="AP3" s="42"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -4235,11 +4295,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
@@ -4247,6 +4302,11 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exportTemplates/Reports-football-default.xlsx
+++ b/exportTemplates/Reports-football-default.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="85">
   <si>
     <t>Дата добавления</t>
   </si>
@@ -262,6 +262,21 @@
   </si>
   <si>
     <t>Двойной шанс</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>${table:statistics.bothTeamsToScore.yes}</t>
+  </si>
+  <si>
+    <t>${table:statistics.bothTeamsToScore.no}</t>
+  </si>
+  <si>
+    <t>Обе забьют</t>
   </si>
 </sst>
 </file>
@@ -677,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -746,6 +761,75 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -764,85 +848,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1149,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,32 +1200,33 @@
     <col min="18" max="19" width="7.7109375" customWidth="1"/>
     <col min="20" max="20" width="6.28515625" customWidth="1"/>
     <col min="21" max="21" width="4.42578125" customWidth="1"/>
-    <col min="22" max="22" width="4.140625" customWidth="1"/>
+    <col min="22" max="22" width="6" customWidth="1"/>
     <col min="23" max="23" width="4.5703125" customWidth="1"/>
     <col min="24" max="24" width="5.42578125" customWidth="1"/>
     <col min="25" max="25" width="5.140625" customWidth="1"/>
     <col min="26" max="26" width="6" customWidth="1"/>
     <col min="27" max="27" width="11.5703125" customWidth="1"/>
     <col min="28" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" customWidth="1"/>
-    <col min="30" max="30" width="4.7109375" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" customWidth="1"/>
     <col min="31" max="31" width="6.28515625" customWidth="1"/>
     <col min="32" max="32" width="9.28515625" customWidth="1"/>
-    <col min="33" max="33" width="5.85546875" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" customWidth="1"/>
-    <col min="35" max="35" width="5" customWidth="1"/>
+    <col min="33" max="33" width="7" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" customWidth="1"/>
+    <col min="35" max="35" width="6.7109375" customWidth="1"/>
     <col min="36" max="36" width="6.85546875" customWidth="1"/>
-    <col min="38" max="38" width="5.140625" customWidth="1"/>
-    <col min="39" max="39" width="6.5703125" customWidth="1"/>
-    <col min="40" max="40" width="5.42578125" customWidth="1"/>
+    <col min="38" max="38" width="7.140625" customWidth="1"/>
+    <col min="39" max="39" width="9.28515625" customWidth="1"/>
+    <col min="40" max="40" width="6.85546875" customWidth="1"/>
     <col min="41" max="41" width="6.140625" customWidth="1"/>
     <col min="43" max="43" width="6.140625" customWidth="1"/>
-    <col min="44" max="44" width="7" customWidth="1"/>
+    <col min="44" max="44" width="9.7109375" customWidth="1"/>
     <col min="45" max="45" width="17" style="20" customWidth="1"/>
     <col min="46" max="46" width="30.28515625" customWidth="1"/>
+    <col min="48" max="48" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -1253,95 +1278,101 @@
       <c r="Q1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="23" t="s">
+      <c r="AU1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="21" t="s">
+      <c r="AV1" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -1400,88 +1431,94 @@
         <v>78</v>
       </c>
       <c r="T2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="W2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="AA2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AB2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AE2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AF2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AG2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AH2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AI2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AK2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AL2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AM2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AN2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AO2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AN2" s="17" t="s">
+      <c r="AP2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AO2" s="15" t="s">
+      <c r="AQ2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AR2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AQ2" s="15" t="s">
+      <c r="AS2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AR2" s="18" t="s">
+      <c r="AT2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AS2" s="19" t="s">
+      <c r="AU2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="22" t="s">
+      <c r="AV2" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="M11" s="3"/>
     </row>
   </sheetData>
@@ -1492,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,32 +1556,33 @@
     <col min="18" max="19" width="7.7109375" customWidth="1"/>
     <col min="20" max="20" width="6.28515625" customWidth="1"/>
     <col min="21" max="21" width="4.42578125" customWidth="1"/>
-    <col min="22" max="22" width="4.140625" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" customWidth="1"/>
     <col min="23" max="23" width="4.5703125" customWidth="1"/>
     <col min="24" max="24" width="5.42578125" customWidth="1"/>
     <col min="25" max="25" width="5.140625" customWidth="1"/>
     <col min="26" max="26" width="6" customWidth="1"/>
     <col min="27" max="27" width="11.5703125" customWidth="1"/>
     <col min="28" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" customWidth="1"/>
-    <col min="30" max="30" width="4.7109375" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" customWidth="1"/>
     <col min="31" max="31" width="6.28515625" customWidth="1"/>
     <col min="32" max="32" width="9.28515625" customWidth="1"/>
-    <col min="33" max="33" width="5.85546875" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" customWidth="1"/>
-    <col min="35" max="35" width="5" customWidth="1"/>
+    <col min="33" max="33" width="7.140625" customWidth="1"/>
+    <col min="34" max="34" width="9.28515625" customWidth="1"/>
+    <col min="35" max="35" width="5.85546875" customWidth="1"/>
     <col min="36" max="36" width="6.85546875" customWidth="1"/>
-    <col min="38" max="38" width="5.140625" customWidth="1"/>
-    <col min="39" max="39" width="6.5703125" customWidth="1"/>
-    <col min="40" max="40" width="5.42578125" customWidth="1"/>
+    <col min="38" max="38" width="6.28515625" customWidth="1"/>
+    <col min="39" max="39" width="9.28515625" customWidth="1"/>
+    <col min="40" max="40" width="6.42578125" customWidth="1"/>
     <col min="41" max="41" width="6.140625" customWidth="1"/>
     <col min="43" max="43" width="6.140625" customWidth="1"/>
-    <col min="44" max="44" width="7" customWidth="1"/>
+    <col min="44" max="44" width="9.5703125" customWidth="1"/>
     <col min="45" max="45" width="17" style="20" customWidth="1"/>
     <col min="46" max="46" width="30.28515625" customWidth="1"/>
+    <col min="48" max="48" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -1596,95 +1634,101 @@
       <c r="Q1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="23" t="s">
+      <c r="AU1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="21" t="s">
+      <c r="AV1" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -1743,88 +1787,94 @@
         <v>78</v>
       </c>
       <c r="T2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="W2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="AA2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AB2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AE2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AF2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AG2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AH2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AI2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AK2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AL2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AM2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AN2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AO2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AN2" s="17" t="s">
+      <c r="AP2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AO2" s="15" t="s">
+      <c r="AQ2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AR2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AQ2" s="15" t="s">
+      <c r="AS2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AR2" s="18" t="s">
+      <c r="AT2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AS2" s="19" t="s">
+      <c r="AU2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="22" t="s">
+      <c r="AV2" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="M11" s="3"/>
     </row>
   </sheetData>
@@ -1834,10 +1884,365 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="8" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="19" width="7.7109375" customWidth="1"/>
+    <col min="20" max="20" width="5" customWidth="1"/>
+    <col min="21" max="21" width="4" customWidth="1"/>
+    <col min="22" max="22" width="5" customWidth="1"/>
+    <col min="23" max="23" width="4.5703125" customWidth="1"/>
+    <col min="24" max="24" width="5.42578125" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" customWidth="1"/>
+    <col min="26" max="26" width="6" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" customWidth="1"/>
+    <col min="28" max="28" width="6" customWidth="1"/>
+    <col min="29" max="29" width="9" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" customWidth="1"/>
+    <col min="31" max="31" width="6.28515625" customWidth="1"/>
+    <col min="32" max="32" width="9.28515625" customWidth="1"/>
+    <col min="33" max="33" width="7.140625" customWidth="1"/>
+    <col min="34" max="34" width="9.42578125" customWidth="1"/>
+    <col min="35" max="35" width="5.85546875" customWidth="1"/>
+    <col min="36" max="36" width="6.85546875" customWidth="1"/>
+    <col min="38" max="38" width="6.5703125" customWidth="1"/>
+    <col min="39" max="39" width="8.85546875" customWidth="1"/>
+    <col min="40" max="40" width="6.28515625" customWidth="1"/>
+    <col min="41" max="41" width="6.140625" customWidth="1"/>
+    <col min="43" max="43" width="6.140625" customWidth="1"/>
+    <col min="44" max="44" width="9.7109375" customWidth="1"/>
+    <col min="45" max="45" width="17" style="20" customWidth="1"/>
+    <col min="46" max="46" width="30.28515625" customWidth="1"/>
+    <col min="48" max="48" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV2" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="M11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AV11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,32 +2266,33 @@
     <col min="18" max="19" width="7.7109375" customWidth="1"/>
     <col min="20" max="20" width="6.28515625" customWidth="1"/>
     <col min="21" max="21" width="4.42578125" customWidth="1"/>
-    <col min="22" max="22" width="4.140625" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" customWidth="1"/>
     <col min="23" max="23" width="4.5703125" customWidth="1"/>
     <col min="24" max="24" width="5.42578125" customWidth="1"/>
     <col min="25" max="25" width="5.140625" customWidth="1"/>
     <col min="26" max="26" width="6" customWidth="1"/>
     <col min="27" max="27" width="11.5703125" customWidth="1"/>
     <col min="28" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" customWidth="1"/>
-    <col min="30" max="30" width="4.7109375" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" customWidth="1"/>
+    <col min="30" max="30" width="6.85546875" customWidth="1"/>
     <col min="31" max="31" width="6.28515625" customWidth="1"/>
     <col min="32" max="32" width="9.28515625" customWidth="1"/>
-    <col min="33" max="33" width="5.85546875" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" customWidth="1"/>
-    <col min="35" max="35" width="5" customWidth="1"/>
+    <col min="33" max="33" width="7.140625" customWidth="1"/>
+    <col min="34" max="34" width="9" customWidth="1"/>
+    <col min="35" max="35" width="6.7109375" customWidth="1"/>
     <col min="36" max="36" width="6.85546875" customWidth="1"/>
-    <col min="38" max="38" width="5.140625" customWidth="1"/>
-    <col min="39" max="39" width="6.5703125" customWidth="1"/>
-    <col min="40" max="40" width="5.42578125" customWidth="1"/>
+    <col min="38" max="38" width="6.28515625" customWidth="1"/>
+    <col min="39" max="39" width="9.7109375" customWidth="1"/>
+    <col min="40" max="40" width="6.85546875" customWidth="1"/>
     <col min="41" max="41" width="6.140625" customWidth="1"/>
     <col min="43" max="43" width="6.140625" customWidth="1"/>
-    <col min="44" max="44" width="7" customWidth="1"/>
+    <col min="44" max="44" width="9" customWidth="1"/>
     <col min="45" max="45" width="17" style="20" customWidth="1"/>
     <col min="46" max="46" width="30.28515625" customWidth="1"/>
+    <col min="48" max="48" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -1938,95 +2344,101 @@
       <c r="Q1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="23" t="s">
+      <c r="AU1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="21" t="s">
+      <c r="AV1" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -2085,88 +2497,94 @@
         <v>78</v>
       </c>
       <c r="T2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="W2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="AA2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AB2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AE2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AF2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AG2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AH2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AI2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AK2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AL2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AM2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AN2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AO2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AN2" s="17" t="s">
+      <c r="AP2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AO2" s="15" t="s">
+      <c r="AQ2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AR2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AQ2" s="15" t="s">
+      <c r="AS2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AR2" s="18" t="s">
+      <c r="AT2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AS2" s="19" t="s">
+      <c r="AU2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="22" t="s">
+      <c r="AV2" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="M11" s="3"/>
     </row>
   </sheetData>
@@ -2174,12 +2592,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG24" sqref="AG24"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2203,32 +2621,32 @@
     <col min="18" max="19" width="7.7109375" customWidth="1"/>
     <col min="20" max="20" width="6.28515625" customWidth="1"/>
     <col min="21" max="21" width="4.42578125" customWidth="1"/>
-    <col min="22" max="22" width="4.140625" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" customWidth="1"/>
     <col min="23" max="23" width="4.5703125" customWidth="1"/>
     <col min="24" max="24" width="5.42578125" customWidth="1"/>
     <col min="25" max="25" width="5.140625" customWidth="1"/>
     <col min="26" max="26" width="6" customWidth="1"/>
     <col min="27" max="27" width="11.5703125" customWidth="1"/>
     <col min="28" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" customWidth="1"/>
-    <col min="30" max="30" width="4.7109375" customWidth="1"/>
-    <col min="31" max="31" width="6.28515625" customWidth="1"/>
+    <col min="29" max="29" width="8.85546875" customWidth="1"/>
+    <col min="30" max="31" width="6.28515625" customWidth="1"/>
     <col min="32" max="32" width="9.28515625" customWidth="1"/>
-    <col min="33" max="33" width="5.85546875" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" customWidth="1"/>
-    <col min="35" max="35" width="5" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" customWidth="1"/>
+    <col min="35" max="35" width="6.140625" customWidth="1"/>
     <col min="36" max="36" width="6.85546875" customWidth="1"/>
-    <col min="38" max="38" width="5.140625" customWidth="1"/>
-    <col min="39" max="39" width="6.5703125" customWidth="1"/>
-    <col min="40" max="40" width="5.42578125" customWidth="1"/>
+    <col min="38" max="38" width="6.42578125" customWidth="1"/>
+    <col min="39" max="39" width="8.85546875" customWidth="1"/>
+    <col min="40" max="40" width="6.28515625" customWidth="1"/>
     <col min="41" max="41" width="6.140625" customWidth="1"/>
     <col min="43" max="43" width="6.140625" customWidth="1"/>
-    <col min="44" max="44" width="7" customWidth="1"/>
+    <col min="44" max="44" width="9.5703125" customWidth="1"/>
     <col min="45" max="45" width="17" style="20" customWidth="1"/>
     <col min="46" max="46" width="30.28515625" customWidth="1"/>
+    <col min="48" max="48" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -2280,95 +2698,101 @@
       <c r="Q1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="23" t="s">
+      <c r="AU1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="21" t="s">
+      <c r="AV1" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -2427,88 +2851,94 @@
         <v>78</v>
       </c>
       <c r="T2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="W2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="AA2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AB2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AE2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AF2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AG2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AH2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AI2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AK2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AL2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AM2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AN2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AO2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AN2" s="17" t="s">
+      <c r="AP2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AO2" s="15" t="s">
+      <c r="AQ2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AR2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AQ2" s="15" t="s">
+      <c r="AS2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AR2" s="18" t="s">
+      <c r="AT2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AS2" s="19" t="s">
+      <c r="AU2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="22" t="s">
+      <c r="AV2" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="M11" s="3"/>
     </row>
   </sheetData>
@@ -2516,12 +2946,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2545,32 +2975,33 @@
     <col min="18" max="19" width="7.7109375" customWidth="1"/>
     <col min="20" max="20" width="6.28515625" customWidth="1"/>
     <col min="21" max="21" width="4.42578125" customWidth="1"/>
-    <col min="22" max="22" width="4.140625" customWidth="1"/>
+    <col min="22" max="22" width="5" customWidth="1"/>
     <col min="23" max="23" width="4.5703125" customWidth="1"/>
     <col min="24" max="24" width="5.42578125" customWidth="1"/>
     <col min="25" max="25" width="5.140625" customWidth="1"/>
     <col min="26" max="26" width="6" customWidth="1"/>
     <col min="27" max="27" width="11.5703125" customWidth="1"/>
     <col min="28" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" customWidth="1"/>
-    <col min="30" max="30" width="4.7109375" customWidth="1"/>
+    <col min="29" max="29" width="9.5703125" customWidth="1"/>
+    <col min="30" max="30" width="6.42578125" customWidth="1"/>
     <col min="31" max="31" width="6.28515625" customWidth="1"/>
     <col min="32" max="32" width="9.28515625" customWidth="1"/>
-    <col min="33" max="33" width="5.85546875" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" customWidth="1"/>
-    <col min="35" max="35" width="5" customWidth="1"/>
+    <col min="33" max="33" width="7.7109375" customWidth="1"/>
+    <col min="34" max="34" width="9.28515625" customWidth="1"/>
+    <col min="35" max="35" width="6.28515625" customWidth="1"/>
     <col min="36" max="36" width="6.85546875" customWidth="1"/>
-    <col min="38" max="38" width="5.140625" customWidth="1"/>
-    <col min="39" max="39" width="6.5703125" customWidth="1"/>
-    <col min="40" max="40" width="5.42578125" customWidth="1"/>
+    <col min="38" max="38" width="6.85546875" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" customWidth="1"/>
+    <col min="40" max="40" width="6.7109375" customWidth="1"/>
     <col min="41" max="41" width="6.140625" customWidth="1"/>
     <col min="43" max="43" width="6.140625" customWidth="1"/>
-    <col min="44" max="44" width="7" customWidth="1"/>
+    <col min="44" max="44" width="9.5703125" customWidth="1"/>
     <col min="45" max="45" width="17" style="20" customWidth="1"/>
     <col min="46" max="46" width="30.28515625" customWidth="1"/>
+    <col min="48" max="48" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -2622,95 +3053,101 @@
       <c r="Q1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="23" t="s">
+      <c r="AU1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="21" t="s">
+      <c r="AV1" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -2769,88 +3206,94 @@
         <v>78</v>
       </c>
       <c r="T2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="W2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="AA2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AB2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AE2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AF2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AG2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AH2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AI2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AK2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AL2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AM2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AN2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AO2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AN2" s="17" t="s">
+      <c r="AP2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AO2" s="15" t="s">
+      <c r="AQ2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AR2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AQ2" s="15" t="s">
+      <c r="AS2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AR2" s="18" t="s">
+      <c r="AT2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AS2" s="19" t="s">
+      <c r="AU2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="22" t="s">
+      <c r="AV2" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="M11" s="3"/>
     </row>
   </sheetData>
@@ -2858,12 +3301,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2884,35 +3327,35 @@
     <col min="15" max="15" width="4" customWidth="1"/>
     <col min="16" max="16" width="4.28515625" customWidth="1"/>
     <col min="17" max="17" width="5.140625" customWidth="1"/>
-    <col min="18" max="19" width="7.7109375" customWidth="1"/>
-    <col min="20" max="20" width="6.28515625" customWidth="1"/>
-    <col min="21" max="21" width="4.42578125" customWidth="1"/>
-    <col min="22" max="22" width="4.140625" customWidth="1"/>
-    <col min="23" max="23" width="4.5703125" customWidth="1"/>
-    <col min="24" max="24" width="5.42578125" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" customWidth="1"/>
-    <col min="26" max="26" width="6" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" customWidth="1"/>
+    <col min="18" max="21" width="7.7109375" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" customWidth="1"/>
+    <col min="23" max="23" width="4.42578125" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" customWidth="1"/>
+    <col min="25" max="25" width="4.5703125" customWidth="1"/>
+    <col min="26" max="26" width="5.42578125" customWidth="1"/>
+    <col min="27" max="27" width="5.140625" customWidth="1"/>
     <col min="28" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" customWidth="1"/>
-    <col min="30" max="30" width="4.7109375" customWidth="1"/>
-    <col min="31" max="31" width="6.28515625" customWidth="1"/>
-    <col min="32" max="32" width="9.28515625" customWidth="1"/>
-    <col min="33" max="33" width="5.85546875" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" customWidth="1"/>
-    <col min="35" max="35" width="5" customWidth="1"/>
-    <col min="36" max="36" width="6.85546875" customWidth="1"/>
-    <col min="38" max="38" width="5.140625" customWidth="1"/>
-    <col min="39" max="39" width="6.5703125" customWidth="1"/>
-    <col min="40" max="40" width="5.42578125" customWidth="1"/>
-    <col min="41" max="41" width="6.140625" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" customWidth="1"/>
+    <col min="30" max="30" width="6" customWidth="1"/>
+    <col min="31" max="31" width="6.85546875" customWidth="1"/>
+    <col min="32" max="32" width="4.7109375" customWidth="1"/>
+    <col min="33" max="33" width="6.28515625" customWidth="1"/>
+    <col min="34" max="34" width="9.28515625" customWidth="1"/>
+    <col min="35" max="35" width="5.85546875" customWidth="1"/>
+    <col min="36" max="36" width="7.42578125" customWidth="1"/>
+    <col min="37" max="37" width="5" customWidth="1"/>
+    <col min="38" max="38" width="6.85546875" customWidth="1"/>
+    <col min="40" max="40" width="6.28515625" customWidth="1"/>
+    <col min="41" max="41" width="6.5703125" customWidth="1"/>
+    <col min="42" max="42" width="5.42578125" customWidth="1"/>
     <col min="43" max="43" width="6.140625" customWidth="1"/>
-    <col min="44" max="44" width="7" customWidth="1"/>
-    <col min="45" max="45" width="17" style="20" customWidth="1"/>
-    <col min="46" max="46" width="30.28515625" customWidth="1"/>
+    <col min="45" max="45" width="6.140625" customWidth="1"/>
+    <col min="46" max="46" width="7" customWidth="1"/>
+    <col min="47" max="47" width="17" style="20" customWidth="1"/>
+    <col min="48" max="48" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -2964,95 +3407,101 @@
       <c r="Q1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="23" t="s">
+      <c r="AU1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="21" t="s">
+      <c r="AV1" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -3111,430 +3560,94 @@
         <v>78</v>
       </c>
       <c r="T2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="W2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="AA2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AB2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AD2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AE2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AF2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AG2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AH2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AI2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AK2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AL2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AM2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AN2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AO2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AN2" s="17" t="s">
+      <c r="AP2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AO2" s="15" t="s">
+      <c r="AQ2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AR2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AQ2" s="15" t="s">
+      <c r="AS2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AR2" s="18" t="s">
+      <c r="AT2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AS2" s="19" t="s">
+      <c r="AU2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="22" t="s">
+      <c r="AV2" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="M11" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="8" width="5.5703125" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" customWidth="1"/>
-    <col min="18" max="19" width="7.7109375" customWidth="1"/>
-    <col min="20" max="20" width="6.28515625" customWidth="1"/>
-    <col min="21" max="21" width="4.42578125" customWidth="1"/>
-    <col min="22" max="22" width="4.140625" customWidth="1"/>
-    <col min="23" max="23" width="4.5703125" customWidth="1"/>
-    <col min="24" max="24" width="5.42578125" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" customWidth="1"/>
-    <col min="26" max="26" width="6" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" customWidth="1"/>
-    <col min="28" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" customWidth="1"/>
-    <col min="30" max="30" width="4.7109375" customWidth="1"/>
-    <col min="31" max="31" width="6.28515625" customWidth="1"/>
-    <col min="32" max="32" width="9.28515625" customWidth="1"/>
-    <col min="33" max="33" width="5.85546875" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" customWidth="1"/>
-    <col min="35" max="35" width="5" customWidth="1"/>
-    <col min="36" max="36" width="6.85546875" customWidth="1"/>
-    <col min="38" max="38" width="5.140625" customWidth="1"/>
-    <col min="39" max="39" width="6.5703125" customWidth="1"/>
-    <col min="40" max="40" width="5.42578125" customWidth="1"/>
-    <col min="41" max="41" width="6.140625" customWidth="1"/>
-    <col min="43" max="43" width="6.140625" customWidth="1"/>
-    <col min="44" max="44" width="7" customWidth="1"/>
-    <col min="45" max="45" width="17" style="20" customWidth="1"/>
-    <col min="46" max="46" width="30.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG2" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK2" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM2" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR2" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT2" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="M11" s="3"/>
     </row>
   </sheetData>
@@ -3544,10 +3657,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS13"/>
+  <dimension ref="A1:AU13"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:X4"/>
+      <selection activeCell="Y3" sqref="Y3:Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3574,149 +3687,155 @@
     <col min="21" max="21" width="4.5703125" customWidth="1"/>
     <col min="22" max="22" width="5.42578125" customWidth="1"/>
     <col min="23" max="23" width="7.140625" customWidth="1"/>
-    <col min="24" max="24" width="7.85546875" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" customWidth="1"/>
-    <col min="26" max="26" width="6" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" customWidth="1"/>
+    <col min="24" max="26" width="7.85546875" customWidth="1"/>
+    <col min="27" max="27" width="5.140625" customWidth="1"/>
     <col min="28" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" customWidth="1"/>
-    <col min="30" max="30" width="4.7109375" customWidth="1"/>
-    <col min="31" max="31" width="6.28515625" customWidth="1"/>
-    <col min="32" max="32" width="9.28515625" customWidth="1"/>
-    <col min="33" max="33" width="5.85546875" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" customWidth="1"/>
-    <col min="35" max="35" width="5" customWidth="1"/>
-    <col min="36" max="36" width="6.85546875" customWidth="1"/>
-    <col min="38" max="38" width="5.140625" customWidth="1"/>
-    <col min="39" max="39" width="6.5703125" customWidth="1"/>
-    <col min="40" max="40" width="5.42578125" customWidth="1"/>
-    <col min="41" max="41" width="6.140625" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" customWidth="1"/>
+    <col min="30" max="30" width="6" customWidth="1"/>
+    <col min="31" max="31" width="6.85546875" customWidth="1"/>
+    <col min="32" max="32" width="4.7109375" customWidth="1"/>
+    <col min="33" max="33" width="6.28515625" customWidth="1"/>
+    <col min="34" max="34" width="9.28515625" customWidth="1"/>
+    <col min="35" max="35" width="5.85546875" customWidth="1"/>
+    <col min="36" max="36" width="7.42578125" customWidth="1"/>
+    <col min="37" max="37" width="5" customWidth="1"/>
+    <col min="38" max="38" width="6.85546875" customWidth="1"/>
+    <col min="40" max="40" width="5.140625" customWidth="1"/>
+    <col min="41" max="41" width="6.5703125" customWidth="1"/>
+    <col min="42" max="42" width="5.42578125" customWidth="1"/>
     <col min="43" max="43" width="6.140625" customWidth="1"/>
-    <col min="44" max="44" width="7" customWidth="1"/>
-    <col min="45" max="45" width="17" style="20" customWidth="1"/>
+    <col min="45" max="45" width="6.140625" customWidth="1"/>
+    <col min="46" max="46" width="7" customWidth="1"/>
+    <col min="47" max="47" width="17" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:47" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="43" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="49" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="50" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="50" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="24" t="s">
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="47" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="27" t="s">
+    <row r="2" spans="1:47" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="34" t="s">
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="34" t="s">
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="31" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="34" t="s">
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="31" t="s">
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="34" t="s">
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="25"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="48"/>
     </row>
-    <row r="3" spans="1:45" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -3783,75 +3902,81 @@
       <c r="V3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="W3" s="55" t="s">
+      <c r="W3" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="X3" s="56" t="s">
+      <c r="X3" s="27" t="s">
         <v>76</v>
       </c>
       <c r="Y3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AB3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AC3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AD3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AF3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AH3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AI3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AK3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AL3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AN3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AN3" s="9" t="s">
+      <c r="AP3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AO3" s="6" t="s">
+      <c r="AQ3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AP3" s="6" t="s">
+      <c r="AR3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AQ3" s="6" t="s">
+      <c r="AS3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AS3" s="26"/>
+      <c r="AU3" s="49"/>
     </row>
-    <row r="4" spans="1:45" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -3915,7 +4040,7 @@
       <c r="U4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="53" t="s">
+      <c r="V4" s="24" t="s">
         <v>32</v>
       </c>
       <c r="W4" s="17" t="s">
@@ -3924,88 +4049,95 @@
       <c r="X4" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="Y4" s="54" t="s">
+      <c r="Y4" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA4" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="AB4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AC4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AD4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AE4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AD4" s="17" t="s">
+      <c r="AF4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AG4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AH4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AI4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AJ4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AI4" s="17" t="s">
+      <c r="AK4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AJ4" s="15" t="s">
+      <c r="AL4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AK4" s="15" t="s">
+      <c r="AM4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AL4" s="15" t="s">
+      <c r="AN4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AM4" s="15" t="s">
+      <c r="AO4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AN4" s="17" t="s">
+      <c r="AP4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AO4" s="15" t="s">
+      <c r="AQ4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AP4" s="15" t="s">
+      <c r="AR4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AQ4" s="15" t="s">
+      <c r="AS4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AR4" s="18" t="s">
+      <c r="AT4" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AS4" s="19" t="s">
+      <c r="AU4" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="M13" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="M1:Z1"/>
+    <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="J1:L2"/>
-    <mergeCell ref="M1:X1"/>
-    <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="AI1:AR1"/>
+    <mergeCell ref="AA1:AJ1"/>
+    <mergeCell ref="AK1:AT1"/>
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AS1:AS3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AN2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4065,116 +4197,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="43" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="49" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="50" t="s">
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="50" t="s">
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="24" t="s">
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="47" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="27" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="30" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="31" t="s">
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="34" t="s">
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="31" t="s">
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="34" t="s">
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="25"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="48"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4300,7 +4432,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="26"/>
+      <c r="AP3" s="49"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -4435,11 +4567,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
@@ -4447,6 +4574,11 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
